--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/BHM_Covid_Testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE505EE5-5B78-9946-A0D6-EB0788A70FE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B508572B-B91C-D040-9027-E729661C971E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1820" windowWidth="23440" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
+    <workbookView xWindow="1360" yWindow="2180" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +153,13 @@
     <font>
       <sz val="12"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,10 +185,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +507,10 @@
   <dimension ref="A2:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -629,9 +637,10 @@
       <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="F4" s="3"/>
       <c r="G4" t="s">
         <v>27</v>
       </c>
@@ -652,7 +661,8 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H5" t="s">

--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/BHM_Covid_Testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B508572B-B91C-D040-9027-E729661C971E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AE4008-9D46-5C40-A1EC-4B6D9AFB45BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="2180" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>NA, NQ</t>
   </si>
@@ -142,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,6 +153,13 @@
     <font>
       <sz val="12"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,11 +192,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,12 +518,12 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12:B15"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -571,7 +579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19">
       <c r="B3" t="s">
         <v>18</v>
       </c>
@@ -627,7 +635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>0</v>
       </c>
@@ -651,7 +659,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1</v>
       </c>
@@ -675,7 +683,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>2</v>
       </c>
@@ -693,7 +701,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>3</v>
       </c>
@@ -711,7 +719,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>4</v>
       </c>
@@ -721,7 +729,7 @@
       <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K8" s="1"/>
@@ -734,7 +742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>5</v>
       </c>
@@ -744,7 +752,7 @@
       <c r="G9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="K9" s="1"/>
@@ -757,7 +765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>6</v>
       </c>
@@ -772,7 +780,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>7</v>
       </c>
@@ -787,7 +795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>8</v>
       </c>
@@ -797,9 +805,7 @@
       <c r="I12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
         <v>30</v>
@@ -812,16 +818,14 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="2" t="s">
         <v>28</v>
       </c>
@@ -837,7 +841,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>10</v>
       </c>
@@ -864,7 +868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>11</v>
       </c>
@@ -891,7 +895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>12</v>
       </c>
@@ -912,7 +916,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>13</v>
       </c>
@@ -933,7 +937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>14</v>
       </c>
@@ -951,7 +955,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>15</v>
       </c>
@@ -969,7 +973,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>16</v>
       </c>

--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/BHM_Covid_Testing/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/Covid_policies_w_imperfect_testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AE4008-9D46-5C40-A1EC-4B6D9AFB45BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35EF3DBF-BB63-1041-979A-CEE6122535B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="2180" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>
@@ -24,8 +24,84 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{B925A70B-340C-9A4B-A632-1BB572207AC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>release rate for asymptomatic positives</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{E81BAEA6-2C62-3F43-9C91-3D1FC1270860}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>release rate for asymptomatic positives</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
   <si>
     <t>NA, NQ</t>
   </si>
@@ -136,13 +212,16 @@
   </si>
   <si>
     <t>gamma*labda*alpha_t</t>
+  </si>
+  <si>
+    <t>r^AP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -171,13 +250,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,12 +290,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,14 +610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4172083D-8402-E94E-8719-CF901282B3C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4172083D-8402-E94E-8719-CF901282B3C7}">
   <dimension ref="A2:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -787,6 +886,9 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -824,6 +926,9 @@
       </c>
       <c r="B13" t="s">
         <v>14</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="2" t="s">
@@ -987,5 +1092,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/Covid_policies_w_imperfect_testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35EF3DBF-BB63-1041-979A-CEE6122535B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B72E5AD-2EFD-3B4F-8658-538F70E55FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="2180" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>NA, NQ</t>
   </si>
@@ -617,7 +617,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -965,13 +965,9 @@
         <v>29</v>
       </c>
       <c r="P14" s="2"/>
-      <c r="Q14" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
-      <c r="S14" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15">
@@ -993,12 +989,8 @@
         <v>29</v>
       </c>
       <c r="Q15" s="2"/>
-      <c r="R15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16">

--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/Covid_policies_w_imperfect_testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B72E5AD-2EFD-3B4F-8658-538F70E55FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D7A92-DE92-9143-9403-3FB75CAAB89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="2180" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
+    <workbookView xWindow="100" yWindow="2400" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,39 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{8F3A9828-2D04-9A45-9E0C-64F1F70C9441}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Sensitivity added to account for reduced knowledge in transitions from known not infected to known infected. Without this, the structure would imply perfect sensitivity for these transitions.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C11" authorId="0" shapeId="0" xr:uid="{B925A70B-340C-9A4B-A632-1BB572207AC2}">
       <text>
         <r>
@@ -101,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>NA, NQ</t>
   </si>
@@ -215,6 +248,18 @@
   </si>
   <si>
     <t>r^AP</t>
+  </si>
+  <si>
+    <t>labda*alpha_t*sens</t>
+  </si>
+  <si>
+    <t>labda*alpha_t*(1-sens)</t>
+  </si>
+  <si>
+    <t>labda^Q*alpha_t*sens</t>
+  </si>
+  <si>
+    <t>labda^Q*alpha_t*(1-sens)</t>
   </si>
 </sst>
 </file>
@@ -617,7 +662,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="S15" sqref="S15"/>
+      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -792,12 +837,13 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1"/>
+      <c r="I6" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:19">
@@ -810,13 +856,14 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="J7" t="s">
-        <v>28</v>
+      <c r="J7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">

--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/Covid_policies_w_imperfect_testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6D7A92-DE92-9143-9403-3FB75CAAB89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D75B38-FD87-6B4D-8CD2-C8C7C2CF8B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="2400" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>NA, NQ</t>
   </si>
@@ -260,6 +260,12 @@
   </si>
   <si>
     <t>labda^Q*alpha_t*(1-sens)</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>sigma^Q</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -834,6 +840,9 @@
       <c r="B6" t="s">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
@@ -852,6 +861,9 @@
       </c>
       <c r="B7" t="s">
         <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>

--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/Covid_policies_w_imperfect_testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D75B38-FD87-6B4D-8CD2-C8C7C2CF8B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C142127-4728-B342-A699-82E4F63430EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="100" yWindow="2400" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>

--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/Covid_policies_w_imperfect_testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C142127-4728-B342-A699-82E4F63430EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00036C41-3614-844A-BA5D-3CF20470B793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="2400" windowWidth="25280" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
+    <workbookView xWindow="6740" yWindow="1220" windowWidth="23340" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{B925A70B-340C-9A4B-A632-1BB572207AC2}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{048E8170-A4A6-BC4D-8A90-B891A50E393A}">
       <text>
         <r>
           <rPr>
@@ -92,11 +92,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>release rate for asymptomatic positives</t>
+          <t>Should these be retested and unquarantined in case of false negative?</t>
         </r>
       </text>
     </comment>
-    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{E81BAEA6-2C62-3F43-9C91-3D1FC1270860}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{E81BAEA6-2C62-3F43-9C91-3D1FC1270860}">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>release rate for asymptomatic positives</t>
+          <t>retesting rate for asymptomatic positives</t>
         </r>
       </text>
     </comment>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>NA, NQ</t>
   </si>
@@ -199,27 +199,12 @@
     <t>ksi^u</t>
   </si>
   <si>
-    <t>tau*sens</t>
-  </si>
-  <si>
-    <t>tau*(1-sens)</t>
-  </si>
-  <si>
-    <t>tau*spec</t>
-  </si>
-  <si>
-    <t>tau*(1-spec)</t>
-  </si>
-  <si>
     <t>ksi^-</t>
   </si>
   <si>
     <t>r^-</t>
   </si>
   <si>
-    <t>labda*alpha_t</t>
-  </si>
-  <si>
     <t>labda^Q*alpha_t</t>
   </si>
   <si>
@@ -244,28 +229,46 @@
     <t>r^r</t>
   </si>
   <si>
-    <t>gamma*labda*alpha_t</t>
-  </si>
-  <si>
-    <t>r^AP</t>
-  </si>
-  <si>
-    <t>labda*alpha_t*sens</t>
-  </si>
-  <si>
-    <t>labda*alpha_t*(1-sens)</t>
-  </si>
-  <si>
-    <t>labda^Q*alpha_t*sens</t>
-  </si>
-  <si>
-    <t>labda^Q*alpha_t*(1-sens)</t>
-  </si>
-  <si>
     <t>sigma</t>
   </si>
   <si>
     <t>sigma^Q</t>
+  </si>
+  <si>
+    <t>lockdown_eff*lambda*alpha_t</t>
+  </si>
+  <si>
+    <t>lambda^Q*alpha_t</t>
+  </si>
+  <si>
+    <t>tau_re^AP*test_spec</t>
+  </si>
+  <si>
+    <t>gamma*lockdown_eff*lambda*alpha_t</t>
+  </si>
+  <si>
+    <t>tau*(1-spec) + tau_TT^NQ*(1-spec)</t>
+  </si>
+  <si>
+    <t>tau*spec + tau_TT^NQ*spec</t>
+  </si>
+  <si>
+    <t>tau*spec +  tau_TT^Q*spec</t>
+  </si>
+  <si>
+    <t>tau*(1-spec)+ tau_TT^Q*(1-spec)</t>
+  </si>
+  <si>
+    <t>tau*sens + tau_TT^NQ*sens</t>
+  </si>
+  <si>
+    <t>tau*sens + tau_TT^Q*sens</t>
+  </si>
+  <si>
+    <t>tau*(1-sens) + tau_TT^Q*(1-sens)</t>
+  </si>
+  <si>
+    <t>tau*(1-sens) +  tau_TT^NQ*(1-sens)</t>
   </si>
 </sst>
 </file>
@@ -341,13 +344,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,10 +672,15 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
@@ -796,14 +805,14 @@
         <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -821,14 +830,14 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -841,18 +850,17 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>38</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:19">
@@ -863,19 +871,18 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="5"/>
       <c r="K7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:19">
       <c r="A8">
@@ -888,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,16 +918,16 @@
         <v>19</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -929,13 +936,16 @@
       </c>
       <c r="B10" t="s">
         <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -945,15 +955,13 @@
       <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="P11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -964,12 +972,12 @@
         <v>13</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -986,15 +994,15 @@
       <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>37</v>
+      <c r="F13" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1018,10 +1026,10 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1040,12 +1048,12 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1063,13 +1071,13 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="P16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1084,13 +1092,13 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1108,7 +1116,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1126,7 +1134,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="Q19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:19">

--- a/documentation/transition_matrix_w_sens_spec.xlsx
+++ b/documentation/transition_matrix_w_sens_spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ljneuvon/Work/Epidemic control/Covid_policies_w_imperfect_testing/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00036C41-3614-844A-BA5D-3CF20470B793}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF36322-055D-ED4E-B8CB-3DF8614243B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="1220" windowWidth="23340" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
+    <workbookView xWindow="22520" yWindow="13320" windowWidth="23340" windowHeight="14840" xr2:uid="{59EEBB9C-DF2A-EC4F-BD0B-CDAFEE3749BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -672,7 +672,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
